--- a/medicine/Enfance/F_comme_garçon/F_comme_garçon.xlsx
+++ b/medicine/Enfance/F_comme_garçon/F_comme_garçon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F_comme_gar%C3%A7on</t>
+          <t>F_comme_garçon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 F comme garçon est un roman pour adolescents d'Isabelle Rossignol, publié en 2007. Il raconte l'histoire d'une jeune fille qui découvre son homosexualité.
-Le livre fait partie de la collection « Médium » de L'École des loisirs, ce qui signifie qu'il est destiné aux jeunes de 12 à 16 ans[1].
+Le livre fait partie de la collection « Médium » de L'École des loisirs, ce qui signifie qu'il est destiné aux jeunes de 12 à 16 ans.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F_comme_gar%C3%A7on</t>
+          <t>F_comme_garçon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre est écrit à la première personne de narration du point de vue de la jeune héroïne, Zoé. Au début du roman, Zoé commence sa puberté, elle vient d'avoir ses premières règles.
 Dans la première partie du roman, Zoé est amoureuse de sa cousine Nina. Par gentillesse et affection pour elle, Nina accepte les jeux érotiques que lui demande Zoé. Toutefois à cause de son éducation religieuse, Zoé culpabilise pour le péché de chair qu'elle commet. Finalement quand elle avoue son amour à Nina, celle-ci lui demande de ne plus la toucher.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F_comme_gar%C3%A7on</t>
+          <t>F_comme_garçon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Utilisation scolaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chaîne publique Télévision suisse romande décerne tous les ans un prix littéraire à un roman pour cette tranche d'âge, le Prix TSR Littérature ados. Pour cela, la chaîne invite plusieurs classes, qui défendent chacune un roman. F comme garçon faisait partie de la sélection de 2007[2].
-Pour présenter le roman F comme garçon, les élèves ont mis en scène plusieurs passages-clés. À noter que le roman comprend des scènes de sexe, décrites très sommairement. Les élèves ont représenté une de ces scènes par une étreinte en ombre chinoise[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chaîne publique Télévision suisse romande décerne tous les ans un prix littéraire à un roman pour cette tranche d'âge, le Prix TSR Littérature ados. Pour cela, la chaîne invite plusieurs classes, qui défendent chacune un roman. F comme garçon faisait partie de la sélection de 2007.
+Pour présenter le roman F comme garçon, les élèves ont mis en scène plusieurs passages-clés. À noter que le roman comprend des scènes de sexe, décrites très sommairement. Les élèves ont représenté une de ces scènes par une étreinte en ombre chinoise.
 </t>
         </is>
       </c>
